--- a/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-patient.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-patient.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
 </t>
   </si>
   <si>
-    <t>PDQm Patient</t>
+    <t>CH Core Patient</t>
   </si>
   <si>
     <t>The CH Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
@@ -1003,7 +1003,7 @@
     <t>The birthname of the patient</t>
   </si>
   <si>
-    <t>The birthname is added  with the ISO 21090 qualifier https://www.hl7.org/fhir/extension-iso21090-en-qualifier.html BR</t>
+    <t>The birthname is added with the ISO 21090 qualifier https://www.hl7.org/fhir/extension-iso21090-en-qualifier.html BR</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -8936,7 +8936,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -10258,7 +10258,7 @@
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>83</v>
@@ -11584,7 +11584,7 @@
         <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>83</v>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-patient.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$146</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5834" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5603" uniqueCount="704">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -481,6 +481,10 @@
     <t>The registered place of birth of the patient.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>eCH-0011: placeOfBirth BFS-322, BFS-323, BFS 324</t>
   </si>
   <si>
@@ -500,10 +504,6 @@
     <t>The registered place of origin of the patient.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>eCH-0011: placeOfOrigin, BFS-42</t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>citizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>religion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-religion|5.2.0}
+    <t xml:space="preserve">Extension {patient-religion|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -857,7 +857,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1826,7 +1826,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -2056,8 +2056,7 @@
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:preferred}
-</t>
+    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -2121,36 +2120,6 @@
   </si>
   <si>
     <t>PID-15</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>Language of correspondence</t>
-  </si>
-  <si>
-    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.id</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.extension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.language</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.preferred</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Patient.generalPractitioner</t>
@@ -2160,7 +2129,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2184,11 +2153,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-epr-fhir/StructureDefinition/ch-pdqm-provider-organization)
-</t>
-  </si>
-  <si>
-    <t>Provider organization of the patient</t>
+    <t>Organization that is the custodian of the patient record</t>
   </si>
   <si>
     <t>Organization that is the custodian of the patient record.</t>
@@ -2235,7 +2200,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2593,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP152"/>
+  <dimension ref="A1:AP146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2602,9 +2567,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.4765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2627,7 +2592,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3821,13 +3786,13 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>84</v>
@@ -3847,13 +3812,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -3875,13 +3840,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3941,7 +3906,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>143</v>
@@ -4061,7 +4026,7 @@
         <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>162</v>
@@ -4181,7 +4146,7 @@
         <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>143</v>
@@ -4445,7 +4410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>186</v>
       </c>
@@ -4689,7 +4654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>197</v>
       </c>
@@ -6139,7 +6104,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>299</v>
       </c>
@@ -6263,7 +6228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>302</v>
       </c>
@@ -8399,7 +8364,7 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>143</v>
@@ -10313,7 +10278,7 @@
         <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>143</v>
@@ -12227,7 +12192,7 @@
         <v>83</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>143</v>
@@ -18584,14 +18549,16 @@
         <v>84</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AC133" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD133" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>643</v>
@@ -18609,7 +18576,7 @@
         <v>104</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>84</v>
+        <v>648</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>649</v>
@@ -19236,20 +19203,18 @@
         <v>670</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="C139" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>84</v>
@@ -19261,20 +19226,18 @@
         <v>84</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>556</v>
+        <v>672</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>647</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>84</v>
       </c>
@@ -19322,7 +19285,7 @@
         <v>84</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>82</v>
@@ -19337,19 +19300,19 @@
         <v>104</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>673</v>
+        <v>84</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>650</v>
+        <v>207</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>84</v>
@@ -19357,10 +19320,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19380,19 +19343,23 @@
         <v>84</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>204</v>
+        <v>679</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>682</v>
+      </c>
       <c r="P140" t="s" s="2">
         <v>84</v>
       </c>
@@ -19440,7 +19407,7 @@
         <v>84</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>206</v>
+        <v>678</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>82</v>
@@ -19452,16 +19419,16 @@
         <v>84</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>207</v>
+        <v>606</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>84</v>
+        <v>683</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>84</v>
@@ -19475,14 +19442,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19495,24 +19462,26 @@
         <v>84</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>137</v>
+        <v>556</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>210</v>
+        <v>685</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>211</v>
+        <v>686</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>687</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>688</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>84</v>
       </c>
@@ -19560,7 +19529,7 @@
         <v>84</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>213</v>
+        <v>684</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>82</v>
@@ -19572,16 +19541,16 @@
         <v>84</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL141" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AM141" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>84</v>
@@ -19595,46 +19564,42 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>567</v>
+        <v>84</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>568</v>
+        <v>204</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>84</v>
       </c>
@@ -19682,25 +19647,25 @@
         <v>84</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>570</v>
+        <v>206</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>84</v>
@@ -19717,21 +19682,21 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>84</v>
@@ -19743,20 +19708,18 @@
         <v>84</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>655</v>
+        <v>210</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>656</v>
+        <v>211</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>658</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>84</v>
       </c>
@@ -19780,13 +19743,13 @@
         <v>84</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>84</v>
@@ -19804,34 +19767,34 @@
         <v>84</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>654</v>
+        <v>213</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>659</v>
+        <v>207</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>660</v>
+        <v>84</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>661</v>
+        <v>84</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>84</v>
@@ -19839,52 +19802,52 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>84</v>
+        <v>567</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>663</v>
+        <v>568</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>664</v>
+        <v>569</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>665</v>
+        <v>173</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>666</v>
+        <v>174</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>679</v>
+        <v>84</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>84</v>
@@ -19926,34 +19889,34 @@
         <v>84</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>662</v>
+        <v>570</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>667</v>
+        <v>135</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>668</v>
+        <v>84</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>669</v>
+        <v>84</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>84</v>
@@ -19961,21 +19924,21 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>681</v>
+        <v>84</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>84</v>
@@ -19984,19 +19947,19 @@
         <v>84</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -20046,13 +20009,13 @@
         <v>84</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>84</v>
@@ -20064,7 +20027,7 @@
         <v>84</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>686</v>
+        <v>182</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>207</v>
@@ -20073,7 +20036,7 @@
         <v>84</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>84</v>
@@ -20081,10 +20044,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20092,13 +20055,13 @@
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>84</v>
@@ -20107,20 +20070,16 @@
         <v>93</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>689</v>
+        <v>112</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>693</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>84</v>
       </c>
@@ -20144,13 +20103,13 @@
         <v>84</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>84</v>
+        <v>701</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>84</v>
+        <v>702</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>84</v>
@@ -20168,10 +20127,10 @@
         <v>84</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>92</v>
@@ -20186,10 +20145,10 @@
         <v>84</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>606</v>
+        <v>703</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>694</v>
+        <v>207</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>84</v>
@@ -20198,741 +20157,21 @@
         <v>84</v>
       </c>
       <c r="AP146" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q147" s="2"/>
-      <c r="R147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP147" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q148" s="2"/>
-      <c r="R148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP148" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP149" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP150" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="O151" s="2"/>
-      <c r="P151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q151" s="2"/>
-      <c r="R151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO151" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="AP151" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="152" hidden="true">
-      <c r="A152" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q152" s="2"/>
-      <c r="R152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP152" t="s" s="2">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP152">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AP146">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI151">
+  <conditionalFormatting sqref="A2:AI145">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
